--- a/Section 2.3/Cow Pedigrees/Cow Pedigrees.xlsx
+++ b/Section 2.3/Cow Pedigrees/Cow Pedigrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavramesh/Github/USACO/Section 2.3/Cow Pedigrees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B31108-98EB-884A-A8C4-DCC638DB63B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEECC0E1-635A-2D42-8F9C-6BF3E3AAF2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="33960" windowHeight="19560" xr2:uid="{F257EE1A-FCC1-034F-9D22-1077C584742D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24780" windowHeight="26800" xr2:uid="{F257EE1A-FCC1-034F-9D22-1077C584742D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>n = 0</t>
   </si>
@@ -96,16 +96,7 @@
     <t>h = 10</t>
   </si>
   <si>
-    <t>t = 1</t>
-  </si>
-  <si>
-    <t>t = 2</t>
-  </si>
-  <si>
-    <t>t = 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t = </t>
+    <t>h = 0</t>
   </si>
 </sst>
 </file>
@@ -576,50 +567,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D782F8D-07CA-C047-8836-B9C32651FE4C}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -651,23 +645,26 @@
       <c r="K2" s="5">
         <v>0</v>
       </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
@@ -689,13 +686,16 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -703,12 +703,12 @@
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
@@ -727,13 +727,16 @@
       <c r="K4" s="5">
         <v>0</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -742,14 +745,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
@@ -765,13 +768,16 @@
       <c r="K5" s="5">
         <v>0</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -779,15 +785,19 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9">
         <v>8</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="11">
@@ -799,27 +809,36 @@
       <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9">
         <v>16</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
       <c r="J7" s="11">
@@ -828,128 +847,158 @@
       <c r="K7" s="11">
         <v>0</v>
       </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="9">
+      <c r="H8" s="5"/>
+      <c r="I8" s="9">
         <v>32</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="J8" s="5">
         <v>0</v>
       </c>
       <c r="K8" s="11">
         <v>0</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="9">
+      <c r="I9" s="5"/>
+      <c r="J9" s="9">
         <v>64</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="9">
+      <c r="J10" s="5"/>
+      <c r="K10" s="9">
         <v>128</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="9">
+      <c r="K11" s="5"/>
+      <c r="L11" s="9">
         <v>256</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="10">
+      <c r="L12" s="8"/>
+      <c r="M12" s="10">
         <v>512</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:L12">
+  <conditionalFormatting sqref="C2:M12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
